--- a/2.7. Registro de Recepción de Artículo/campos_unibell_servicio_recepcion_articulos.xlsx
+++ b/2.7. Registro de Recepción de Artículo/campos_unibell_servicio_recepcion_articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.7. Registro de Recepción de Artículo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA34EE-D2F5-41D0-B96C-BEB93F7A0168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DCBB8-F1CF-45BD-B6EE-3497366D8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Artículo: Detalle de inventario - Cantidad por Bulto</t>
+  </si>
+  <si>
+    <t>Artículo: Detalle de inventario - Fracción por Bulto</t>
+  </si>
+  <si>
+    <t>Artículo: Detalle de inventario - Nro Bulto</t>
+  </si>
+  <si>
+    <t>custbody_pe_number</t>
   </si>
 </sst>
 </file>
@@ -637,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB49CB3-079C-437B-AE71-A964E488500E}">
   <dimension ref="B2:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +787,9 @@
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
@@ -923,21 +937,27 @@
       <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">

--- a/2.7. Registro de Recepción de Artículo/campos_unibell_servicio_recepcion_articulos.xlsx
+++ b/2.7. Registro de Recepción de Artículo/campos_unibell_servicio_recepcion_articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.7. Registro de Recepción de Artículo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DCBB8-F1CF-45BD-B6EE-3497366D8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB089521-DAFB-4024-9B94-A7EAF8D07AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Artículo: Detalle de inventario - Cantidad</t>
   </si>
   <si>
-    <t>expirationDate</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -192,6 +189,21 @@
   </si>
   <si>
     <t>custbody_pe_number</t>
+  </si>
+  <si>
+    <t>falta encontrar ese campo</t>
+  </si>
+  <si>
+    <t>CUSTITEMNUMBER_UNI_CANT_BULTO</t>
+  </si>
+  <si>
+    <t>CUSTITEMNUMBER_UNI_FRAC_BULTO</t>
+  </si>
+  <si>
+    <t>CUSTITEMNUMBER_UNI_NRO_BULTO</t>
+  </si>
+  <si>
+    <t>expirationdate</t>
   </si>
 </sst>
 </file>
@@ -649,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB49CB3-079C-437B-AE71-A964E488500E}">
   <dimension ref="B2:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -899,6 +911,9 @@
         <v>42</v>
       </c>
       <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
@@ -908,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -919,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
@@ -938,27 +953,33 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
